--- a/data/original/hospital.xlsx
+++ b/data/original/hospital.xlsx
@@ -22,112 +22,112 @@
     <t>医疗救治医院数量</t>
   </si>
   <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>天津市</t>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>天津</t>
   </si>
   <si>
     <t>河北省</t>
   </si>
   <si>
-    <t>石家庄市</t>
-  </si>
-  <si>
-    <t>唐山市</t>
-  </si>
-  <si>
-    <t>秦皇岛市</t>
-  </si>
-  <si>
-    <t>邯郸市</t>
-  </si>
-  <si>
-    <t>邢台市</t>
-  </si>
-  <si>
-    <t>保定市</t>
-  </si>
-  <si>
-    <t>张家口市</t>
-  </si>
-  <si>
-    <t>承德市</t>
-  </si>
-  <si>
-    <t>沧州市</t>
-  </si>
-  <si>
-    <t>廊坊市</t>
-  </si>
-  <si>
-    <t>衡水市</t>
+    <t>石家庄</t>
+  </si>
+  <si>
+    <t>唐山</t>
+  </si>
+  <si>
+    <t>秦皇岛</t>
+  </si>
+  <si>
+    <t>邯郸</t>
+  </si>
+  <si>
+    <t>邢台</t>
+  </si>
+  <si>
+    <t>保定</t>
+  </si>
+  <si>
+    <t>张家口</t>
+  </si>
+  <si>
+    <t>承德</t>
+  </si>
+  <si>
+    <t>沧州</t>
+  </si>
+  <si>
+    <t>廊坊</t>
+  </si>
+  <si>
+    <t>衡水</t>
   </si>
   <si>
     <t>山西省</t>
   </si>
   <si>
-    <t>太原市</t>
-  </si>
-  <si>
-    <t>大同市</t>
-  </si>
-  <si>
-    <t>阳泉市</t>
-  </si>
-  <si>
-    <t>长治市</t>
-  </si>
-  <si>
-    <t>晋城市</t>
-  </si>
-  <si>
-    <t>朔州市</t>
-  </si>
-  <si>
-    <t>晋中市</t>
-  </si>
-  <si>
-    <t>运城市</t>
-  </si>
-  <si>
-    <t>忻州市</t>
-  </si>
-  <si>
-    <t>临汾市</t>
-  </si>
-  <si>
-    <t>吕梁市</t>
+    <t>太原</t>
+  </si>
+  <si>
+    <t>大同</t>
+  </si>
+  <si>
+    <t>阳泉</t>
+  </si>
+  <si>
+    <t>长治</t>
+  </si>
+  <si>
+    <t>晋城</t>
+  </si>
+  <si>
+    <t>朔州</t>
+  </si>
+  <si>
+    <t>晋中</t>
+  </si>
+  <si>
+    <t>运城</t>
+  </si>
+  <si>
+    <t>忻州</t>
+  </si>
+  <si>
+    <t>临汾</t>
+  </si>
+  <si>
+    <t>吕梁</t>
   </si>
   <si>
     <t>内蒙古自治区</t>
   </si>
   <si>
-    <t>呼和浩特市</t>
-  </si>
-  <si>
-    <t>包头市</t>
-  </si>
-  <si>
-    <t>乌海市</t>
-  </si>
-  <si>
-    <t>赤峰市</t>
-  </si>
-  <si>
-    <t>通辽市</t>
-  </si>
-  <si>
-    <t>鄂尔多斯市</t>
-  </si>
-  <si>
-    <t>呼伦贝尔市</t>
-  </si>
-  <si>
-    <t>巴彦淖尔市</t>
-  </si>
-  <si>
-    <t>乌兰察布市</t>
+    <t>呼和浩特</t>
+  </si>
+  <si>
+    <t>包头</t>
+  </si>
+  <si>
+    <t>乌海</t>
+  </si>
+  <si>
+    <t>赤峰</t>
+  </si>
+  <si>
+    <t>通辽</t>
+  </si>
+  <si>
+    <t>鄂尔多斯</t>
+  </si>
+  <si>
+    <t>呼伦贝尔</t>
+  </si>
+  <si>
+    <t>巴彦淖尔</t>
+  </si>
+  <si>
+    <t>乌兰察布</t>
   </si>
   <si>
     <t>兴安盟</t>
@@ -142,76 +142,76 @@
     <t>辽宁省</t>
   </si>
   <si>
-    <t>沈阳市</t>
-  </si>
-  <si>
-    <t>大连市</t>
-  </si>
-  <si>
-    <t>鞍山市</t>
-  </si>
-  <si>
-    <t>抚顺市</t>
-  </si>
-  <si>
-    <t>本溪市</t>
-  </si>
-  <si>
-    <t>丹东市</t>
-  </si>
-  <si>
-    <t>锦州市</t>
-  </si>
-  <si>
-    <t>营口市</t>
-  </si>
-  <si>
-    <t>阜新市</t>
-  </si>
-  <si>
-    <t>辽阳市</t>
-  </si>
-  <si>
-    <t>盘锦市</t>
-  </si>
-  <si>
-    <t>铁岭市</t>
-  </si>
-  <si>
-    <t>朝阳市</t>
-  </si>
-  <si>
-    <t>葫芦岛市</t>
+    <t>沈阳</t>
+  </si>
+  <si>
+    <t>大连</t>
+  </si>
+  <si>
+    <t>鞍山</t>
+  </si>
+  <si>
+    <t>抚顺</t>
+  </si>
+  <si>
+    <t>本溪</t>
+  </si>
+  <si>
+    <t>丹东</t>
+  </si>
+  <si>
+    <t>锦州</t>
+  </si>
+  <si>
+    <t>营口</t>
+  </si>
+  <si>
+    <t>阜新</t>
+  </si>
+  <si>
+    <t>辽阳</t>
+  </si>
+  <si>
+    <t>盘锦</t>
+  </si>
+  <si>
+    <t>铁岭</t>
+  </si>
+  <si>
+    <t>朝阳</t>
+  </si>
+  <si>
+    <t>葫芦岛</t>
   </si>
   <si>
     <t>吉林省</t>
   </si>
   <si>
-    <t>长春市</t>
-  </si>
-  <si>
-    <t>吉林市</t>
-  </si>
-  <si>
-    <t>四平市</t>
-  </si>
-  <si>
-    <t>公主岭市</t>
-  </si>
-  <si>
-    <t>辽源市</t>
-  </si>
-  <si>
-    <t>通化市</t>
-  </si>
-  <si>
-    <t>白山市</t>
-  </si>
-  <si>
-    <t>松原市</t>
-  </si>
-  <si>
-    <t>白城市</t>
+    <t>长春</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
+    <t>四平</t>
+  </si>
+  <si>
+    <t>公主岭</t>
+  </si>
+  <si>
+    <t>辽源</t>
+  </si>
+  <si>
+    <t>通化</t>
+  </si>
+  <si>
+    <t>白山</t>
+  </si>
+  <si>
+    <t>松原</t>
+  </si>
+  <si>
+    <t>白城</t>
   </si>
   <si>
     <t>延边朝鲜族自治州</t>
@@ -220,394 +220,394 @@
     <t>黑龙江省</t>
   </si>
   <si>
-    <t>哈尔滨市</t>
-  </si>
-  <si>
-    <t>齐齐哈尔市</t>
-  </si>
-  <si>
-    <t>鸡西市</t>
-  </si>
-  <si>
-    <t>鹤岗市</t>
-  </si>
-  <si>
-    <t>双鸭山市</t>
-  </si>
-  <si>
-    <t>大庆市</t>
-  </si>
-  <si>
-    <t>伊春市</t>
-  </si>
-  <si>
-    <t>佳木斯市</t>
-  </si>
-  <si>
-    <t>七台河市</t>
-  </si>
-  <si>
-    <t>牡丹江市</t>
-  </si>
-  <si>
-    <t>黑河市</t>
-  </si>
-  <si>
-    <t>绥化市</t>
+    <t>哈尔滨</t>
+  </si>
+  <si>
+    <t>齐齐哈尔</t>
+  </si>
+  <si>
+    <t>鸡西</t>
+  </si>
+  <si>
+    <t>鹤岗</t>
+  </si>
+  <si>
+    <t>双鸭山</t>
+  </si>
+  <si>
+    <t>大庆</t>
+  </si>
+  <si>
+    <t>伊春</t>
+  </si>
+  <si>
+    <t>佳木斯</t>
+  </si>
+  <si>
+    <t>七台河</t>
+  </si>
+  <si>
+    <t>牡丹江</t>
+  </si>
+  <si>
+    <t>黑河</t>
+  </si>
+  <si>
+    <t>绥化</t>
   </si>
   <si>
     <t>大兴安岭地区</t>
   </si>
   <si>
-    <t>上海市</t>
+    <t>上海</t>
   </si>
   <si>
     <t>江苏省</t>
   </si>
   <si>
-    <t>南京市</t>
-  </si>
-  <si>
-    <t>无锡市</t>
-  </si>
-  <si>
-    <t>徐州市</t>
-  </si>
-  <si>
-    <t>常州市</t>
-  </si>
-  <si>
-    <t>苏州市</t>
-  </si>
-  <si>
-    <t>南通市</t>
-  </si>
-  <si>
-    <t>连云港市</t>
-  </si>
-  <si>
-    <t>淮安市</t>
-  </si>
-  <si>
-    <t>盐城市</t>
-  </si>
-  <si>
-    <t>扬州市</t>
-  </si>
-  <si>
-    <t>镇江市</t>
-  </si>
-  <si>
-    <t>泰州市</t>
-  </si>
-  <si>
-    <t>宿迁市</t>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>徐州</t>
+  </si>
+  <si>
+    <t>常州</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>南通</t>
+  </si>
+  <si>
+    <t>连云港</t>
+  </si>
+  <si>
+    <t>淮安</t>
+  </si>
+  <si>
+    <t>盐城</t>
+  </si>
+  <si>
+    <t>扬州</t>
+  </si>
+  <si>
+    <t>镇江</t>
+  </si>
+  <si>
+    <t>泰州</t>
+  </si>
+  <si>
+    <t>宿迁</t>
   </si>
   <si>
     <t>浙江省</t>
   </si>
   <si>
-    <t>杭州市</t>
-  </si>
-  <si>
-    <t>宁波市</t>
-  </si>
-  <si>
-    <t>温州市</t>
-  </si>
-  <si>
-    <t>嘉兴市</t>
-  </si>
-  <si>
-    <t>湖州市</t>
-  </si>
-  <si>
-    <t>绍兴市</t>
-  </si>
-  <si>
-    <t>金华市</t>
-  </si>
-  <si>
-    <t>衢州市</t>
-  </si>
-  <si>
-    <t>舟山市</t>
-  </si>
-  <si>
-    <t>台州市</t>
-  </si>
-  <si>
-    <t>丽水市</t>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>温州</t>
+  </si>
+  <si>
+    <t>嘉兴</t>
+  </si>
+  <si>
+    <t>湖州</t>
+  </si>
+  <si>
+    <t>绍兴</t>
+  </si>
+  <si>
+    <t>金华</t>
+  </si>
+  <si>
+    <t>衢州</t>
+  </si>
+  <si>
+    <t>舟山</t>
+  </si>
+  <si>
+    <t>台州</t>
+  </si>
+  <si>
+    <t>丽水</t>
   </si>
   <si>
     <t>安徽省</t>
   </si>
   <si>
-    <t>合肥市</t>
-  </si>
-  <si>
-    <t>芜湖市</t>
-  </si>
-  <si>
-    <t>蚌埠市</t>
-  </si>
-  <si>
-    <t>淮南市</t>
-  </si>
-  <si>
-    <t>马鞍山市</t>
-  </si>
-  <si>
-    <t>淮北市</t>
-  </si>
-  <si>
-    <t>铜陵市</t>
-  </si>
-  <si>
-    <t>安庆市</t>
-  </si>
-  <si>
-    <t>黄山市</t>
-  </si>
-  <si>
-    <t>滁州市</t>
-  </si>
-  <si>
-    <t>阜阳市</t>
-  </si>
-  <si>
-    <t>宿州市</t>
-  </si>
-  <si>
-    <t>六安市</t>
-  </si>
-  <si>
-    <t>亳州市</t>
-  </si>
-  <si>
-    <t>池州市</t>
-  </si>
-  <si>
-    <t>宣城市</t>
+    <t>合肥</t>
+  </si>
+  <si>
+    <t>芜湖</t>
+  </si>
+  <si>
+    <t>蚌埠</t>
+  </si>
+  <si>
+    <t>淮南</t>
+  </si>
+  <si>
+    <t>马鞍山</t>
+  </si>
+  <si>
+    <t>淮北</t>
+  </si>
+  <si>
+    <t>铜陵</t>
+  </si>
+  <si>
+    <t>安庆</t>
+  </si>
+  <si>
+    <t>黄山</t>
+  </si>
+  <si>
+    <t>滁州</t>
+  </si>
+  <si>
+    <t>阜阳</t>
+  </si>
+  <si>
+    <t>宿州</t>
+  </si>
+  <si>
+    <t>六安</t>
+  </si>
+  <si>
+    <t>亳州</t>
+  </si>
+  <si>
+    <t>池州</t>
+  </si>
+  <si>
+    <t>宣城</t>
   </si>
   <si>
     <t>福建省</t>
   </si>
   <si>
-    <t>福州市</t>
-  </si>
-  <si>
-    <t>厦门市</t>
-  </si>
-  <si>
-    <t>莆田市</t>
-  </si>
-  <si>
-    <t>三明市</t>
-  </si>
-  <si>
-    <t>泉州市</t>
-  </si>
-  <si>
-    <t>漳州市</t>
-  </si>
-  <si>
-    <t>南平市</t>
-  </si>
-  <si>
-    <t>龙岩市</t>
-  </si>
-  <si>
-    <t>宁德市</t>
+    <t>福州</t>
+  </si>
+  <si>
+    <t>厦门</t>
+  </si>
+  <si>
+    <t>莆田</t>
+  </si>
+  <si>
+    <t>三明</t>
+  </si>
+  <si>
+    <t>泉州</t>
+  </si>
+  <si>
+    <t>漳州</t>
+  </si>
+  <si>
+    <t>南平</t>
+  </si>
+  <si>
+    <t>龙岩</t>
+  </si>
+  <si>
+    <t>宁德</t>
   </si>
   <si>
     <t>江西省</t>
   </si>
   <si>
-    <t>南昌市</t>
-  </si>
-  <si>
-    <t>景德镇市</t>
-  </si>
-  <si>
-    <t>萍乡市</t>
-  </si>
-  <si>
-    <t>九江市</t>
-  </si>
-  <si>
-    <t>新余市</t>
-  </si>
-  <si>
-    <t>鹰潭市</t>
-  </si>
-  <si>
-    <t>赣州市</t>
-  </si>
-  <si>
-    <t>吉安市</t>
-  </si>
-  <si>
-    <t>宜春市</t>
-  </si>
-  <si>
-    <t>抚州市</t>
-  </si>
-  <si>
-    <t>上饶市</t>
+    <t>南昌</t>
+  </si>
+  <si>
+    <t>景德镇</t>
+  </si>
+  <si>
+    <t>萍乡</t>
+  </si>
+  <si>
+    <t>九江</t>
+  </si>
+  <si>
+    <t>新余</t>
+  </si>
+  <si>
+    <t>鹰潭</t>
+  </si>
+  <si>
+    <t>赣州</t>
+  </si>
+  <si>
+    <t>吉安</t>
+  </si>
+  <si>
+    <t>宜春</t>
+  </si>
+  <si>
+    <t>抚州</t>
+  </si>
+  <si>
+    <t>上饶</t>
   </si>
   <si>
     <t>山东省</t>
   </si>
   <si>
-    <t>济南市</t>
-  </si>
-  <si>
-    <t>青岛市</t>
-  </si>
-  <si>
-    <t>淄博市</t>
-  </si>
-  <si>
-    <t>枣庄市</t>
-  </si>
-  <si>
-    <t>烟台市</t>
-  </si>
-  <si>
-    <t>潍坊市</t>
-  </si>
-  <si>
-    <t>济宁市</t>
-  </si>
-  <si>
-    <t>泰安市</t>
-  </si>
-  <si>
-    <t>威海市</t>
-  </si>
-  <si>
-    <t>日照市</t>
-  </si>
-  <si>
-    <t>临沂市</t>
-  </si>
-  <si>
-    <t>德州市</t>
-  </si>
-  <si>
-    <t>聊城市</t>
-  </si>
-  <si>
-    <t>菏泽市</t>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>青岛</t>
+  </si>
+  <si>
+    <t>淄博</t>
+  </si>
+  <si>
+    <t>枣庄</t>
+  </si>
+  <si>
+    <t>烟台</t>
+  </si>
+  <si>
+    <t>潍坊</t>
+  </si>
+  <si>
+    <t>济宁</t>
+  </si>
+  <si>
+    <t>泰安</t>
+  </si>
+  <si>
+    <t>威海</t>
+  </si>
+  <si>
+    <t>日照</t>
+  </si>
+  <si>
+    <t>临沂</t>
+  </si>
+  <si>
+    <t>德州</t>
+  </si>
+  <si>
+    <t>聊城</t>
+  </si>
+  <si>
+    <t>菏泽</t>
   </si>
   <si>
     <t>河南省</t>
   </si>
   <si>
-    <t>郑州市</t>
-  </si>
-  <si>
-    <t>开封市</t>
-  </si>
-  <si>
-    <t>洛阳市</t>
-  </si>
-  <si>
-    <t>平顶山市</t>
-  </si>
-  <si>
-    <t>安阳市</t>
-  </si>
-  <si>
-    <t>鹤壁市</t>
-  </si>
-  <si>
-    <t>新乡市</t>
-  </si>
-  <si>
-    <t>焦作市</t>
-  </si>
-  <si>
-    <t>濮阳市</t>
-  </si>
-  <si>
-    <t>许昌市</t>
-  </si>
-  <si>
-    <t>漯河市</t>
-  </si>
-  <si>
-    <t>三门峡市</t>
-  </si>
-  <si>
-    <t>南阳市</t>
-  </si>
-  <si>
-    <t>商丘市</t>
-  </si>
-  <si>
-    <t>信阳市</t>
-  </si>
-  <si>
-    <t>周口市</t>
-  </si>
-  <si>
-    <t>驻马店市</t>
-  </si>
-  <si>
-    <t>济源市</t>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>开封</t>
+  </si>
+  <si>
+    <t>洛阳</t>
+  </si>
+  <si>
+    <t>平顶山</t>
+  </si>
+  <si>
+    <t>安阳</t>
+  </si>
+  <si>
+    <t>鹤壁</t>
+  </si>
+  <si>
+    <t>新乡</t>
+  </si>
+  <si>
+    <t>焦作</t>
+  </si>
+  <si>
+    <t>濮阳</t>
+  </si>
+  <si>
+    <t>许昌</t>
+  </si>
+  <si>
+    <t>漯河</t>
+  </si>
+  <si>
+    <t>三门峡</t>
+  </si>
+  <si>
+    <t>南阳</t>
+  </si>
+  <si>
+    <t>商丘</t>
+  </si>
+  <si>
+    <t>信阳</t>
+  </si>
+  <si>
+    <t>周口</t>
+  </si>
+  <si>
+    <t>驻马店</t>
+  </si>
+  <si>
+    <t>济源</t>
   </si>
   <si>
     <t>湖北省</t>
   </si>
   <si>
-    <t>武汉市</t>
-  </si>
-  <si>
-    <t>黄石市</t>
-  </si>
-  <si>
-    <t>十堰市</t>
-  </si>
-  <si>
-    <t>宜昌市</t>
-  </si>
-  <si>
-    <t>襄阳市</t>
-  </si>
-  <si>
-    <t>鄂州市</t>
-  </si>
-  <si>
-    <t>荆门市</t>
-  </si>
-  <si>
-    <t>孝感市</t>
-  </si>
-  <si>
-    <t>荆州市</t>
-  </si>
-  <si>
-    <t>黄冈市</t>
-  </si>
-  <si>
-    <t>咸宁市</t>
-  </si>
-  <si>
-    <t>随州市</t>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>黄石</t>
+  </si>
+  <si>
+    <t>十堰</t>
+  </si>
+  <si>
+    <t>宜昌</t>
+  </si>
+  <si>
+    <t>襄阳</t>
+  </si>
+  <si>
+    <t>鄂州</t>
+  </si>
+  <si>
+    <t>荆门</t>
+  </si>
+  <si>
+    <t>孝感</t>
+  </si>
+  <si>
+    <t>荆州</t>
+  </si>
+  <si>
+    <t>黄冈</t>
+  </si>
+  <si>
+    <t>咸宁</t>
+  </si>
+  <si>
+    <t>随州</t>
   </si>
   <si>
     <t>恩施土家族苗族自治州</t>
   </si>
   <si>
-    <t>仙桃市</t>
-  </si>
-  <si>
-    <t>潜江市</t>
-  </si>
-  <si>
-    <t>天门市</t>
+    <t>仙桃</t>
+  </si>
+  <si>
+    <t>潜江</t>
+  </si>
+  <si>
+    <t>天门</t>
   </si>
   <si>
     <t>神农架林区</t>
@@ -616,43 +616,43 @@
     <t>湖南省</t>
   </si>
   <si>
-    <t>长沙市</t>
-  </si>
-  <si>
-    <t>株洲市</t>
-  </si>
-  <si>
-    <t>湘潭市</t>
-  </si>
-  <si>
-    <t>衡阳市</t>
-  </si>
-  <si>
-    <t>邵阳市</t>
-  </si>
-  <si>
-    <t>岳阳市</t>
-  </si>
-  <si>
-    <t>常德市</t>
-  </si>
-  <si>
-    <t>张家界市</t>
-  </si>
-  <si>
-    <t>益阳市</t>
-  </si>
-  <si>
-    <t>郴州市</t>
-  </si>
-  <si>
-    <t>永州市</t>
-  </si>
-  <si>
-    <t>怀化市</t>
-  </si>
-  <si>
-    <t>娄底市</t>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>株洲</t>
+  </si>
+  <si>
+    <t>湘潭</t>
+  </si>
+  <si>
+    <t>衡阳</t>
+  </si>
+  <si>
+    <t>邵阳</t>
+  </si>
+  <si>
+    <t>岳阳</t>
+  </si>
+  <si>
+    <t>常德</t>
+  </si>
+  <si>
+    <t>张家界</t>
+  </si>
+  <si>
+    <t>益阳</t>
+  </si>
+  <si>
+    <t>郴州</t>
+  </si>
+  <si>
+    <t>永州</t>
+  </si>
+  <si>
+    <t>怀化</t>
+  </si>
+  <si>
+    <t>娄底</t>
   </si>
   <si>
     <t>湘西土家族苗族自治州</t>
@@ -661,142 +661,142 @@
     <t>广东省</t>
   </si>
   <si>
-    <t>广州市</t>
-  </si>
-  <si>
-    <t>韶关市</t>
-  </si>
-  <si>
-    <t>深圳市</t>
-  </si>
-  <si>
-    <t>珠海市</t>
-  </si>
-  <si>
-    <t>汕头市</t>
-  </si>
-  <si>
-    <t>佛山市</t>
-  </si>
-  <si>
-    <t>江门市</t>
-  </si>
-  <si>
-    <t>湛江市</t>
-  </si>
-  <si>
-    <t>茂名市</t>
-  </si>
-  <si>
-    <t>肇庆市</t>
-  </si>
-  <si>
-    <t>惠州市</t>
-  </si>
-  <si>
-    <t>梅州市</t>
-  </si>
-  <si>
-    <t>汕尾市</t>
-  </si>
-  <si>
-    <t>河源市</t>
-  </si>
-  <si>
-    <t>阳江市</t>
-  </si>
-  <si>
-    <t>清远市</t>
-  </si>
-  <si>
-    <t>东莞市</t>
-  </si>
-  <si>
-    <t>中山市</t>
-  </si>
-  <si>
-    <t>潮州市</t>
-  </si>
-  <si>
-    <t>揭阳市</t>
-  </si>
-  <si>
-    <t>云浮市</t>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>韶关</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>珠海</t>
+  </si>
+  <si>
+    <t>汕头</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>江门</t>
+  </si>
+  <si>
+    <t>湛江</t>
+  </si>
+  <si>
+    <t>茂名</t>
+  </si>
+  <si>
+    <t>肇庆</t>
+  </si>
+  <si>
+    <t>惠州</t>
+  </si>
+  <si>
+    <t>梅州</t>
+  </si>
+  <si>
+    <t>汕尾</t>
+  </si>
+  <si>
+    <t>河源</t>
+  </si>
+  <si>
+    <t>阳江</t>
+  </si>
+  <si>
+    <t>清远</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>中山</t>
+  </si>
+  <si>
+    <t>潮州</t>
+  </si>
+  <si>
+    <t>揭阳</t>
+  </si>
+  <si>
+    <t>云浮</t>
   </si>
   <si>
     <t>广西壮族自治区</t>
   </si>
   <si>
-    <t>南宁市</t>
-  </si>
-  <si>
-    <t>柳州市</t>
-  </si>
-  <si>
-    <t>桂林市</t>
-  </si>
-  <si>
-    <t>梧州市</t>
-  </si>
-  <si>
-    <t>北海市</t>
-  </si>
-  <si>
-    <t>防城港市</t>
-  </si>
-  <si>
-    <t>钦州市</t>
-  </si>
-  <si>
-    <t>贵港市</t>
-  </si>
-  <si>
-    <t>玉林市</t>
-  </si>
-  <si>
-    <t>百色市</t>
-  </si>
-  <si>
-    <t>贺州市</t>
-  </si>
-  <si>
-    <t>河池市</t>
-  </si>
-  <si>
-    <t>来宾市</t>
-  </si>
-  <si>
-    <t>崇左市</t>
+    <t>南宁</t>
+  </si>
+  <si>
+    <t>柳州</t>
+  </si>
+  <si>
+    <t>桂林</t>
+  </si>
+  <si>
+    <t>梧州</t>
+  </si>
+  <si>
+    <t>北海</t>
+  </si>
+  <si>
+    <t>防城港</t>
+  </si>
+  <si>
+    <t>钦州</t>
+  </si>
+  <si>
+    <t>贵港</t>
+  </si>
+  <si>
+    <t>玉林</t>
+  </si>
+  <si>
+    <t>百色</t>
+  </si>
+  <si>
+    <t>贺州</t>
+  </si>
+  <si>
+    <t>河池</t>
+  </si>
+  <si>
+    <t>来宾</t>
+  </si>
+  <si>
+    <t>崇左</t>
   </si>
   <si>
     <t>海南省</t>
   </si>
   <si>
-    <t>海口市</t>
-  </si>
-  <si>
-    <t>三亚市</t>
-  </si>
-  <si>
-    <t>三沙市</t>
+    <t>海口</t>
+  </si>
+  <si>
+    <t>三亚</t>
+  </si>
+  <si>
+    <t>三沙</t>
   </si>
   <si>
     <t>儋州</t>
   </si>
   <si>
-    <t>五指山市</t>
-  </si>
-  <si>
-    <t>琼海市</t>
-  </si>
-  <si>
-    <t>文昌市</t>
-  </si>
-  <si>
-    <t>万宁市</t>
-  </si>
-  <si>
-    <t>东方市</t>
+    <t>五指山</t>
+  </si>
+  <si>
+    <t>琼海</t>
+  </si>
+  <si>
+    <t>文昌</t>
+  </si>
+  <si>
+    <t>万宁</t>
+  </si>
+  <si>
+    <t>东方</t>
   </si>
   <si>
     <t>定安县</t>
@@ -829,64 +829,64 @@
     <t>琼中黎族苗族自治县</t>
   </si>
   <si>
-    <t>重庆市</t>
+    <t>重庆</t>
   </si>
   <si>
     <t>四川省</t>
   </si>
   <si>
-    <t>成都市</t>
-  </si>
-  <si>
-    <t>自贡市</t>
-  </si>
-  <si>
-    <t>攀枝花市</t>
-  </si>
-  <si>
-    <t>泸州市</t>
-  </si>
-  <si>
-    <t>德阳市</t>
-  </si>
-  <si>
-    <t>绵阳市</t>
-  </si>
-  <si>
-    <t>广元市</t>
-  </si>
-  <si>
-    <t>遂宁市</t>
-  </si>
-  <si>
-    <t>内江市</t>
-  </si>
-  <si>
-    <t>乐山市</t>
-  </si>
-  <si>
-    <t>南充市</t>
-  </si>
-  <si>
-    <t>眉山市</t>
-  </si>
-  <si>
-    <t>宜宾市</t>
-  </si>
-  <si>
-    <t>广安市</t>
-  </si>
-  <si>
-    <t>达州市</t>
-  </si>
-  <si>
-    <t>雅安市</t>
-  </si>
-  <si>
-    <t>巴中市</t>
-  </si>
-  <si>
-    <t>资阳市</t>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>自贡</t>
+  </si>
+  <si>
+    <t>攀枝花</t>
+  </si>
+  <si>
+    <t>泸州</t>
+  </si>
+  <si>
+    <t>德阳</t>
+  </si>
+  <si>
+    <t>绵阳</t>
+  </si>
+  <si>
+    <t>广元</t>
+  </si>
+  <si>
+    <t>遂宁</t>
+  </si>
+  <si>
+    <t>内江</t>
+  </si>
+  <si>
+    <t>乐山</t>
+  </si>
+  <si>
+    <t>南充</t>
+  </si>
+  <si>
+    <t>眉山</t>
+  </si>
+  <si>
+    <t>宜宾</t>
+  </si>
+  <si>
+    <t>广安</t>
+  </si>
+  <si>
+    <t>达州</t>
+  </si>
+  <si>
+    <t>雅安</t>
+  </si>
+  <si>
+    <t>巴中</t>
+  </si>
+  <si>
+    <t>资阳</t>
   </si>
   <si>
     <t>阿坝藏族羌族自治州</t>
@@ -901,22 +901,22 @@
     <t>贵州省</t>
   </si>
   <si>
-    <t>贵阳市</t>
-  </si>
-  <si>
-    <t>六盘水市</t>
-  </si>
-  <si>
-    <t>遵义市</t>
-  </si>
-  <si>
-    <t>安顺市</t>
-  </si>
-  <si>
-    <t>毕节市</t>
-  </si>
-  <si>
-    <t>铜仁市</t>
+    <t>贵阳</t>
+  </si>
+  <si>
+    <t>六盘水</t>
+  </si>
+  <si>
+    <t>遵义</t>
+  </si>
+  <si>
+    <t>安顺</t>
+  </si>
+  <si>
+    <t>毕节</t>
+  </si>
+  <si>
+    <t>铜仁</t>
   </si>
   <si>
     <t>黔西南布依族苗族自治州</t>
@@ -931,28 +931,28 @@
     <t>云南省</t>
   </si>
   <si>
-    <t>昆明市</t>
-  </si>
-  <si>
-    <t>曲靖市</t>
-  </si>
-  <si>
-    <t>玉溪市</t>
-  </si>
-  <si>
-    <t>保山市</t>
-  </si>
-  <si>
-    <t>昭通市</t>
-  </si>
-  <si>
-    <t>丽江市</t>
-  </si>
-  <si>
-    <t>普洱市</t>
-  </si>
-  <si>
-    <t>临沧市</t>
+    <t>昆明</t>
+  </si>
+  <si>
+    <t>曲靖</t>
+  </si>
+  <si>
+    <t>玉溪</t>
+  </si>
+  <si>
+    <t>保山</t>
+  </si>
+  <si>
+    <t>昭通</t>
+  </si>
+  <si>
+    <t>丽江</t>
+  </si>
+  <si>
+    <t>普洱</t>
+  </si>
+  <si>
+    <t>临沧</t>
   </si>
   <si>
     <t>楚雄彝族自治州</t>
@@ -982,19 +982,19 @@
     <t>西藏自治区</t>
   </si>
   <si>
-    <t>拉萨市</t>
-  </si>
-  <si>
-    <t>日喀则市</t>
-  </si>
-  <si>
-    <t>昌都市</t>
-  </si>
-  <si>
-    <t>林芝市</t>
-  </si>
-  <si>
-    <t>山南市</t>
+    <t>拉萨</t>
+  </si>
+  <si>
+    <t>日喀则</t>
+  </si>
+  <si>
+    <t>昌都</t>
+  </si>
+  <si>
+    <t>林芝</t>
+  </si>
+  <si>
+    <t>山南</t>
   </si>
   <si>
     <t>那曲</t>
@@ -1006,73 +1006,73 @@
     <t>陕西省</t>
   </si>
   <si>
-    <t>西安市</t>
-  </si>
-  <si>
-    <t>铜川市</t>
-  </si>
-  <si>
-    <t>宝鸡市</t>
-  </si>
-  <si>
-    <t>咸阳市</t>
-  </si>
-  <si>
-    <t>渭南市</t>
-  </si>
-  <si>
-    <t>延安市</t>
-  </si>
-  <si>
-    <t>汉中市</t>
-  </si>
-  <si>
-    <t>榆林市</t>
-  </si>
-  <si>
-    <t>安康市</t>
-  </si>
-  <si>
-    <t>商洛市</t>
+    <t>西安</t>
+  </si>
+  <si>
+    <t>铜川</t>
+  </si>
+  <si>
+    <t>宝鸡</t>
+  </si>
+  <si>
+    <t>咸阳</t>
+  </si>
+  <si>
+    <t>渭南</t>
+  </si>
+  <si>
+    <t>延安</t>
+  </si>
+  <si>
+    <t>汉中</t>
+  </si>
+  <si>
+    <t>榆林</t>
+  </si>
+  <si>
+    <t>安康</t>
+  </si>
+  <si>
+    <t>商洛</t>
   </si>
   <si>
     <t>甘肃省</t>
   </si>
   <si>
-    <t>兰州市</t>
-  </si>
-  <si>
-    <t>嘉峪关市</t>
-  </si>
-  <si>
-    <t>金昌市</t>
-  </si>
-  <si>
-    <t>白银市</t>
-  </si>
-  <si>
-    <t>天水市</t>
-  </si>
-  <si>
-    <t>武威市</t>
-  </si>
-  <si>
-    <t>张掖市</t>
-  </si>
-  <si>
-    <t>平凉市</t>
-  </si>
-  <si>
-    <t>酒泉市</t>
-  </si>
-  <si>
-    <t>庆阳市</t>
-  </si>
-  <si>
-    <t>定西市</t>
-  </si>
-  <si>
-    <t>陇南市</t>
+    <t>兰州</t>
+  </si>
+  <si>
+    <t>嘉峪关</t>
+  </si>
+  <si>
+    <t>金昌</t>
+  </si>
+  <si>
+    <t>白银</t>
+  </si>
+  <si>
+    <t>天水</t>
+  </si>
+  <si>
+    <t>武威</t>
+  </si>
+  <si>
+    <t>张掖</t>
+  </si>
+  <si>
+    <t>平凉</t>
+  </si>
+  <si>
+    <t>酒泉</t>
+  </si>
+  <si>
+    <t>庆阳</t>
+  </si>
+  <si>
+    <t>定西</t>
+  </si>
+  <si>
+    <t>陇南</t>
   </si>
   <si>
     <t>临夏回族自治州</t>
@@ -1084,10 +1084,10 @@
     <t>青海省</t>
   </si>
   <si>
-    <t>西宁市</t>
-  </si>
-  <si>
-    <t>海东市</t>
+    <t>西宁</t>
+  </si>
+  <si>
+    <t>海东</t>
   </si>
   <si>
     <t>海北藏族自治州</t>
@@ -1111,28 +1111,28 @@
     <t>宁夏回族自治区</t>
   </si>
   <si>
-    <t>银川市</t>
-  </si>
-  <si>
-    <t>石嘴山市</t>
-  </si>
-  <si>
-    <t>吴忠市</t>
-  </si>
-  <si>
-    <t>固原市</t>
-  </si>
-  <si>
-    <t>中卫市</t>
+    <t>银川</t>
+  </si>
+  <si>
+    <t>石嘴山</t>
+  </si>
+  <si>
+    <t>吴忠</t>
+  </si>
+  <si>
+    <t>固原</t>
+  </si>
+  <si>
+    <t>中卫</t>
   </si>
   <si>
     <t>新疆维吾尔自治区</t>
   </si>
   <si>
-    <t>乌鲁木齐市</t>
-  </si>
-  <si>
-    <t>克拉玛依市</t>
+    <t>乌鲁木齐</t>
+  </si>
+  <si>
+    <t>克拉玛依</t>
   </si>
   <si>
     <t>吐鲁番</t>
@@ -1171,10 +1171,10 @@
     <t>阿勒泰地区</t>
   </si>
   <si>
-    <t>石河子市</t>
-  </si>
-  <si>
-    <t>北屯市</t>
+    <t>石河子</t>
+  </si>
+  <si>
+    <t>北屯</t>
   </si>
 </sst>
 </file>
